--- a/spy.xlsx
+++ b/spy.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julian\Desktop\Macrowise\Proyecto Trading\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julian\Documents\GitHub\amazon\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669B4A81-19B4-4B4E-8100-B9E87F21609F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6039583F-48F8-4B07-9177-2CCE2965B7A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2610" yWindow="2505" windowWidth="13095" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10500" yWindow="0" windowWidth="12750" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1521" uniqueCount="1024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1518" uniqueCount="1022">
   <si>
     <t>Name</t>
   </si>
@@ -2195,12 +2195,6 @@
   </si>
   <si>
     <t>LEIDOS HOLDINGS INC</t>
-  </si>
-  <si>
-    <t>BF-B</t>
-  </si>
-  <si>
-    <t>BROWN FORMAN CORP CLASS B</t>
   </si>
   <si>
     <t>OKE</t>
@@ -3478,10 +3472,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C507"/>
+  <dimension ref="A1:C506"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A356" workbookViewId="0">
+      <selection activeCell="A358" sqref="A358:C358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3493,7 +3487,7 @@
   <sheetData>
     <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -7426,7 +7420,7 @@
         <v>726</v>
       </c>
       <c r="C358" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
     </row>
     <row r="359" spans="1:3" x14ac:dyDescent="0.25">
@@ -7437,7 +7431,7 @@
         <v>728</v>
       </c>
       <c r="C359" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
     </row>
     <row r="360" spans="1:3" x14ac:dyDescent="0.25">
@@ -7448,7 +7442,7 @@
         <v>730</v>
       </c>
       <c r="C360" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="361" spans="1:3" x14ac:dyDescent="0.25">
@@ -7470,7 +7464,7 @@
         <v>734</v>
       </c>
       <c r="C362" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="363" spans="1:3" x14ac:dyDescent="0.25">
@@ -7481,7 +7475,7 @@
         <v>736</v>
       </c>
       <c r="C363" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="364" spans="1:3" x14ac:dyDescent="0.25">
@@ -7492,7 +7486,7 @@
         <v>738</v>
       </c>
       <c r="C364" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="365" spans="1:3" x14ac:dyDescent="0.25">
@@ -7503,7 +7497,7 @@
         <v>740</v>
       </c>
       <c r="C365" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="366" spans="1:3" x14ac:dyDescent="0.25">
@@ -7514,7 +7508,7 @@
         <v>742</v>
       </c>
       <c r="C366" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="367" spans="1:3" x14ac:dyDescent="0.25">
@@ -7525,7 +7519,7 @@
         <v>744</v>
       </c>
       <c r="C367" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="368" spans="1:3" x14ac:dyDescent="0.25">
@@ -7536,7 +7530,7 @@
         <v>746</v>
       </c>
       <c r="C368" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.25">
@@ -7558,7 +7552,7 @@
         <v>750</v>
       </c>
       <c r="C370" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.25">
@@ -7569,7 +7563,7 @@
         <v>752</v>
       </c>
       <c r="C371" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.25">
@@ -7580,7 +7574,7 @@
         <v>754</v>
       </c>
       <c r="C372" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.25">
@@ -7602,7 +7596,7 @@
         <v>758</v>
       </c>
       <c r="C374" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.25">
@@ -7613,7 +7607,7 @@
         <v>760</v>
       </c>
       <c r="C375" t="s">
-        <v>111</v>
+        <v>19</v>
       </c>
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.25">
@@ -7624,7 +7618,7 @@
         <v>762</v>
       </c>
       <c r="C376" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.25">
@@ -7635,7 +7629,7 @@
         <v>764</v>
       </c>
       <c r="C377" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.25">
@@ -7646,7 +7640,7 @@
         <v>766</v>
       </c>
       <c r="C378" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.25">
@@ -7657,7 +7651,7 @@
         <v>768</v>
       </c>
       <c r="C379" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.25">
@@ -7668,7 +7662,7 @@
         <v>770</v>
       </c>
       <c r="C380" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.25">
@@ -7679,7 +7673,7 @@
         <v>772</v>
       </c>
       <c r="C381" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.25">
@@ -7690,7 +7684,7 @@
         <v>774</v>
       </c>
       <c r="C382" t="s">
-        <v>118</v>
+        <v>4</v>
       </c>
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.25">
@@ -7701,7 +7695,7 @@
         <v>776</v>
       </c>
       <c r="C383" t="s">
-        <v>4</v>
+        <v>118</v>
       </c>
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.25">
@@ -7712,7 +7706,7 @@
         <v>778</v>
       </c>
       <c r="C384" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="385" spans="1:3" x14ac:dyDescent="0.25">
@@ -7723,7 +7717,7 @@
         <v>780</v>
       </c>
       <c r="C385" t="s">
-        <v>97</v>
+        <v>22</v>
       </c>
     </row>
     <row r="386" spans="1:3" x14ac:dyDescent="0.25">
@@ -7734,7 +7728,7 @@
         <v>782</v>
       </c>
       <c r="C386" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
     </row>
     <row r="387" spans="1:3" x14ac:dyDescent="0.25">
@@ -7745,7 +7739,7 @@
         <v>784</v>
       </c>
       <c r="C387" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
     </row>
     <row r="388" spans="1:3" x14ac:dyDescent="0.25">
@@ -7756,7 +7750,7 @@
         <v>786</v>
       </c>
       <c r="C388" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
     </row>
     <row r="389" spans="1:3" x14ac:dyDescent="0.25">
@@ -7767,7 +7761,7 @@
         <v>788</v>
       </c>
       <c r="C389" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
     </row>
     <row r="390" spans="1:3" x14ac:dyDescent="0.25">
@@ -7778,7 +7772,7 @@
         <v>790</v>
       </c>
       <c r="C390" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="391" spans="1:3" x14ac:dyDescent="0.25">
@@ -7789,7 +7783,7 @@
         <v>792</v>
       </c>
       <c r="C391" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="392" spans="1:3" x14ac:dyDescent="0.25">
@@ -7800,7 +7794,7 @@
         <v>794</v>
       </c>
       <c r="C392" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
     </row>
     <row r="393" spans="1:3" x14ac:dyDescent="0.25">
@@ -7811,7 +7805,7 @@
         <v>796</v>
       </c>
       <c r="C393" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
     </row>
     <row r="394" spans="1:3" x14ac:dyDescent="0.25">
@@ -7822,7 +7816,7 @@
         <v>798</v>
       </c>
       <c r="C394" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
     </row>
     <row r="395" spans="1:3" x14ac:dyDescent="0.25">
@@ -7833,7 +7827,7 @@
         <v>800</v>
       </c>
       <c r="C395" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
     </row>
     <row r="396" spans="1:3" x14ac:dyDescent="0.25">
@@ -7844,7 +7838,7 @@
         <v>802</v>
       </c>
       <c r="C396" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="397" spans="1:3" x14ac:dyDescent="0.25">
@@ -7855,7 +7849,7 @@
         <v>804</v>
       </c>
       <c r="C397" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
     </row>
     <row r="398" spans="1:3" x14ac:dyDescent="0.25">
@@ -7866,7 +7860,7 @@
         <v>806</v>
       </c>
       <c r="C398" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
     </row>
     <row r="399" spans="1:3" x14ac:dyDescent="0.25">
@@ -7877,7 +7871,7 @@
         <v>808</v>
       </c>
       <c r="C399" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="400" spans="1:3" x14ac:dyDescent="0.25">
@@ -7888,7 +7882,7 @@
         <v>810</v>
       </c>
       <c r="C400" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="401" spans="1:3" x14ac:dyDescent="0.25">
@@ -7899,7 +7893,7 @@
         <v>812</v>
       </c>
       <c r="C401" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="402" spans="1:3" x14ac:dyDescent="0.25">
@@ -7910,7 +7904,7 @@
         <v>814</v>
       </c>
       <c r="C402" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="403" spans="1:3" x14ac:dyDescent="0.25">
@@ -7921,7 +7915,7 @@
         <v>816</v>
       </c>
       <c r="C403" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="404" spans="1:3" x14ac:dyDescent="0.25">
@@ -7932,7 +7926,7 @@
         <v>818</v>
       </c>
       <c r="C404" t="s">
-        <v>19</v>
+        <v>118</v>
       </c>
     </row>
     <row r="405" spans="1:3" x14ac:dyDescent="0.25">
@@ -7943,7 +7937,7 @@
         <v>820</v>
       </c>
       <c r="C405" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
     </row>
     <row r="406" spans="1:3" x14ac:dyDescent="0.25">
@@ -7954,7 +7948,7 @@
         <v>822</v>
       </c>
       <c r="C406" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="407" spans="1:3" x14ac:dyDescent="0.25">
@@ -7965,7 +7959,7 @@
         <v>824</v>
       </c>
       <c r="C407" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="408" spans="1:3" x14ac:dyDescent="0.25">
@@ -7976,7 +7970,7 @@
         <v>826</v>
       </c>
       <c r="C408" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
     </row>
     <row r="409" spans="1:3" x14ac:dyDescent="0.25">
@@ -7987,7 +7981,7 @@
         <v>828</v>
       </c>
       <c r="C409" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
     </row>
     <row r="410" spans="1:3" x14ac:dyDescent="0.25">
@@ -7998,7 +7992,7 @@
         <v>830</v>
       </c>
       <c r="C410" t="s">
-        <v>97</v>
+        <v>4</v>
       </c>
     </row>
     <row r="411" spans="1:3" x14ac:dyDescent="0.25">
@@ -8009,7 +8003,7 @@
         <v>832</v>
       </c>
       <c r="C411" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="412" spans="1:3" x14ac:dyDescent="0.25">
@@ -8020,7 +8014,7 @@
         <v>834</v>
       </c>
       <c r="C412" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="413" spans="1:3" x14ac:dyDescent="0.25">
@@ -8031,7 +8025,7 @@
         <v>836</v>
       </c>
       <c r="C413" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="414" spans="1:3" x14ac:dyDescent="0.25">
@@ -8042,7 +8036,7 @@
         <v>838</v>
       </c>
       <c r="C414" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
     </row>
     <row r="415" spans="1:3" x14ac:dyDescent="0.25">
@@ -8053,7 +8047,7 @@
         <v>840</v>
       </c>
       <c r="C415" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="416" spans="1:3" x14ac:dyDescent="0.25">
@@ -8064,7 +8058,7 @@
         <v>842</v>
       </c>
       <c r="C416" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="417" spans="1:3" x14ac:dyDescent="0.25">
@@ -8075,7 +8069,7 @@
         <v>844</v>
       </c>
       <c r="C417" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="418" spans="1:3" x14ac:dyDescent="0.25">
@@ -8086,7 +8080,7 @@
         <v>846</v>
       </c>
       <c r="C418" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="419" spans="1:3" x14ac:dyDescent="0.25">
@@ -8097,7 +8091,7 @@
         <v>848</v>
       </c>
       <c r="C419" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
     </row>
     <row r="420" spans="1:3" x14ac:dyDescent="0.25">
@@ -8108,7 +8102,7 @@
         <v>850</v>
       </c>
       <c r="C420" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="421" spans="1:3" x14ac:dyDescent="0.25">
@@ -8119,7 +8113,7 @@
         <v>852</v>
       </c>
       <c r="C421" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
     </row>
     <row r="422" spans="1:3" x14ac:dyDescent="0.25">
@@ -8130,7 +8124,7 @@
         <v>854</v>
       </c>
       <c r="C422" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="423" spans="1:3" x14ac:dyDescent="0.25">
@@ -8141,7 +8135,7 @@
         <v>856</v>
       </c>
       <c r="C423" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
     </row>
     <row r="424" spans="1:3" x14ac:dyDescent="0.25">
@@ -8163,7 +8157,7 @@
         <v>860</v>
       </c>
       <c r="C425" t="s">
-        <v>22</v>
+        <v>97</v>
       </c>
     </row>
     <row r="426" spans="1:3" x14ac:dyDescent="0.25">
@@ -8174,7 +8168,7 @@
         <v>862</v>
       </c>
       <c r="C426" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
     </row>
     <row r="427" spans="1:3" x14ac:dyDescent="0.25">
@@ -8185,7 +8179,7 @@
         <v>864</v>
       </c>
       <c r="C427" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
     </row>
     <row r="428" spans="1:3" x14ac:dyDescent="0.25">
@@ -8207,7 +8201,7 @@
         <v>868</v>
       </c>
       <c r="C429" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
     </row>
     <row r="430" spans="1:3" x14ac:dyDescent="0.25">
@@ -8218,7 +8212,7 @@
         <v>870</v>
       </c>
       <c r="C430" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
     </row>
     <row r="431" spans="1:3" x14ac:dyDescent="0.25">
@@ -8229,7 +8223,7 @@
         <v>872</v>
       </c>
       <c r="C431" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="432" spans="1:3" x14ac:dyDescent="0.25">
@@ -8240,7 +8234,7 @@
         <v>874</v>
       </c>
       <c r="C432" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
     </row>
     <row r="433" spans="1:3" x14ac:dyDescent="0.25">
@@ -8262,7 +8256,7 @@
         <v>878</v>
       </c>
       <c r="C434" t="s">
-        <v>111</v>
+        <v>9</v>
       </c>
     </row>
     <row r="435" spans="1:3" x14ac:dyDescent="0.25">
@@ -8284,7 +8278,7 @@
         <v>882</v>
       </c>
       <c r="C436" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="437" spans="1:3" x14ac:dyDescent="0.25">
@@ -8295,7 +8289,7 @@
         <v>884</v>
       </c>
       <c r="C437" t="s">
-        <v>4</v>
+        <v>108</v>
       </c>
     </row>
     <row r="438" spans="1:3" x14ac:dyDescent="0.25">
@@ -8306,7 +8300,7 @@
         <v>886</v>
       </c>
       <c r="C438" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="439" spans="1:3" x14ac:dyDescent="0.25">
@@ -8317,7 +8311,7 @@
         <v>888</v>
       </c>
       <c r="C439" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
     </row>
     <row r="440" spans="1:3" x14ac:dyDescent="0.25">
@@ -8328,7 +8322,7 @@
         <v>890</v>
       </c>
       <c r="C440" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
     </row>
     <row r="441" spans="1:3" x14ac:dyDescent="0.25">
@@ -8339,7 +8333,7 @@
         <v>892</v>
       </c>
       <c r="C441" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
     </row>
     <row r="442" spans="1:3" x14ac:dyDescent="0.25">
@@ -8350,7 +8344,7 @@
         <v>894</v>
       </c>
       <c r="C442" t="s">
-        <v>118</v>
+        <v>19</v>
       </c>
     </row>
     <row r="443" spans="1:3" x14ac:dyDescent="0.25">
@@ -8372,7 +8366,7 @@
         <v>898</v>
       </c>
       <c r="C444" t="s">
-        <v>19</v>
+        <v>118</v>
       </c>
     </row>
     <row r="445" spans="1:3" x14ac:dyDescent="0.25">
@@ -8383,7 +8377,7 @@
         <v>900</v>
       </c>
       <c r="C445" t="s">
-        <v>118</v>
+        <v>27</v>
       </c>
     </row>
     <row r="446" spans="1:3" x14ac:dyDescent="0.25">
@@ -8394,7 +8388,7 @@
         <v>902</v>
       </c>
       <c r="C446" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
     </row>
     <row r="447" spans="1:3" x14ac:dyDescent="0.25">
@@ -8405,7 +8399,7 @@
         <v>904</v>
       </c>
       <c r="C447" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="448" spans="1:3" x14ac:dyDescent="0.25">
@@ -8416,7 +8410,7 @@
         <v>906</v>
       </c>
       <c r="C448" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
     </row>
     <row r="449" spans="1:3" x14ac:dyDescent="0.25">
@@ -8427,7 +8421,7 @@
         <v>908</v>
       </c>
       <c r="C449" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
     </row>
     <row r="450" spans="1:3" x14ac:dyDescent="0.25">
@@ -8438,7 +8432,7 @@
         <v>910</v>
       </c>
       <c r="C450" t="s">
-        <v>12</v>
+        <v>118</v>
       </c>
     </row>
     <row r="451" spans="1:3" x14ac:dyDescent="0.25">
@@ -8471,7 +8465,7 @@
         <v>916</v>
       </c>
       <c r="C453" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.25">
@@ -8482,7 +8476,7 @@
         <v>918</v>
       </c>
       <c r="C454" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.25">
@@ -8493,7 +8487,7 @@
         <v>920</v>
       </c>
       <c r="C455" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.25">
@@ -8504,7 +8498,7 @@
         <v>922</v>
       </c>
       <c r="C456" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.25">
@@ -8515,7 +8509,7 @@
         <v>924</v>
       </c>
       <c r="C457" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.25">
@@ -8526,7 +8520,7 @@
         <v>926</v>
       </c>
       <c r="C458" t="s">
-        <v>118</v>
+        <v>4</v>
       </c>
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.25">
@@ -8537,7 +8531,7 @@
         <v>928</v>
       </c>
       <c r="C459" t="s">
-        <v>4</v>
+        <v>111</v>
       </c>
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.25">
@@ -8548,7 +8542,7 @@
         <v>930</v>
       </c>
       <c r="C460" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.25">
@@ -8559,7 +8553,7 @@
         <v>932</v>
       </c>
       <c r="C461" t="s">
-        <v>118</v>
+        <v>22</v>
       </c>
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.25">
@@ -8570,7 +8564,7 @@
         <v>934</v>
       </c>
       <c r="C462" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.25">
@@ -8581,7 +8575,7 @@
         <v>936</v>
       </c>
       <c r="C463" t="s">
-        <v>12</v>
+        <v>111</v>
       </c>
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.25">
@@ -8603,7 +8597,7 @@
         <v>940</v>
       </c>
       <c r="C465" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.25">
@@ -8614,7 +8608,7 @@
         <v>942</v>
       </c>
       <c r="C466" t="s">
-        <v>108</v>
+        <v>22</v>
       </c>
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.25">
@@ -8625,7 +8619,7 @@
         <v>944</v>
       </c>
       <c r="C467" t="s">
-        <v>22</v>
+        <v>111</v>
       </c>
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.25">
@@ -8636,7 +8630,7 @@
         <v>946</v>
       </c>
       <c r="C468" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.25">
@@ -8647,7 +8641,7 @@
         <v>948</v>
       </c>
       <c r="C469" t="s">
-        <v>118</v>
+        <v>4</v>
       </c>
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.25">
@@ -8658,7 +8652,7 @@
         <v>950</v>
       </c>
       <c r="C470" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.25">
@@ -8669,7 +8663,7 @@
         <v>952</v>
       </c>
       <c r="C471" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.25">
@@ -8680,7 +8674,7 @@
         <v>954</v>
       </c>
       <c r="C472" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.25">
@@ -8691,7 +8685,7 @@
         <v>956</v>
       </c>
       <c r="C473" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.25">
@@ -8702,7 +8696,7 @@
         <v>958</v>
       </c>
       <c r="C474" t="s">
-        <v>22</v>
+        <v>118</v>
       </c>
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.25">
@@ -8713,7 +8707,7 @@
         <v>960</v>
       </c>
       <c r="C475" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.25">
@@ -8724,7 +8718,7 @@
         <v>962</v>
       </c>
       <c r="C476" t="s">
-        <v>12</v>
+        <v>68</v>
       </c>
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.25">
@@ -8735,7 +8729,7 @@
         <v>964</v>
       </c>
       <c r="C477" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.25">
@@ -8746,7 +8740,7 @@
         <v>966</v>
       </c>
       <c r="C478" t="s">
-        <v>9</v>
+        <v>108</v>
       </c>
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.25">
@@ -8757,7 +8751,7 @@
         <v>968</v>
       </c>
       <c r="C479" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.25">
@@ -8779,7 +8773,7 @@
         <v>972</v>
       </c>
       <c r="C481" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.25">
@@ -8812,7 +8806,7 @@
         <v>978</v>
       </c>
       <c r="C484" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.25">
@@ -8823,7 +8817,7 @@
         <v>980</v>
       </c>
       <c r="C485" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.25">
@@ -8834,7 +8828,7 @@
         <v>982</v>
       </c>
       <c r="C486" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.25">
@@ -8845,7 +8839,7 @@
         <v>984</v>
       </c>
       <c r="C487" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.25">
@@ -8856,7 +8850,7 @@
         <v>986</v>
       </c>
       <c r="C488" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.25">
@@ -8867,7 +8861,7 @@
         <v>988</v>
       </c>
       <c r="C489" t="s">
-        <v>68</v>
+        <v>9</v>
       </c>
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.25">
@@ -8889,7 +8883,7 @@
         <v>992</v>
       </c>
       <c r="C491" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.25">
@@ -8900,7 +8894,7 @@
         <v>994</v>
       </c>
       <c r="C492" t="s">
-        <v>111</v>
+        <v>22</v>
       </c>
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.25">
@@ -8911,7 +8905,7 @@
         <v>996</v>
       </c>
       <c r="C493" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.25">
@@ -8922,7 +8916,7 @@
         <v>998</v>
       </c>
       <c r="C494" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.25">
@@ -8933,7 +8927,7 @@
         <v>1000</v>
       </c>
       <c r="C495" t="s">
-        <v>118</v>
+        <v>12</v>
       </c>
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.25">
@@ -8944,7 +8938,7 @@
         <v>1002</v>
       </c>
       <c r="C496" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.25">
@@ -8966,7 +8960,7 @@
         <v>1006</v>
       </c>
       <c r="C498" t="s">
-        <v>9</v>
+        <v>68</v>
       </c>
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.25">
@@ -8977,7 +8971,7 @@
         <v>1008</v>
       </c>
       <c r="C499" t="s">
-        <v>68</v>
+        <v>4</v>
       </c>
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.25">
@@ -8988,7 +8982,7 @@
         <v>1010</v>
       </c>
       <c r="C500" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.25">
@@ -9032,7 +9026,7 @@
         <v>1018</v>
       </c>
       <c r="C504" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.25">
@@ -9043,28 +9037,17 @@
         <v>1020</v>
       </c>
       <c r="C505" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
-        <v>1021</v>
+        <v>621</v>
       </c>
       <c r="B506" t="s">
-        <v>1022</v>
+        <v>622</v>
       </c>
       <c r="C506" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A507" t="s">
-        <v>621</v>
-      </c>
-      <c r="B507" t="s">
-        <v>622</v>
-      </c>
-      <c r="C507" t="s">
         <v>68</v>
       </c>
     </row>
